--- a/calculation/calc_lshape_3_4_2.xlsx
+++ b/calculation/calc_lshape_3_4_2.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakanishi\kenkyuM\MyDocuments\MasterThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nakanishi\kenkyuM\MyDocuments\MasterThesis\calculation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340B5925-2700-4F01-A9B8-B34331DDCF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D493D-24DD-42F1-9B7A-81A45558BCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{95B5B52A-E2CD-4B5E-9A12-35B677C6915F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{95B5B52A-E2CD-4B5E-9A12-35B677C6915F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Forward</t>
     <phoneticPr fontId="1"/>
@@ -170,12 +172,31 @@
   <si>
     <t>F 境界値 片側</t>
   </si>
+  <si>
+    <t>Reverse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forward vs Connect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reverse vs Connect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F検定</t>
+    <rPh sb="1" eb="3">
+      <t>ケンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,16 +212,29 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -228,18 +262,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,7 +312,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="メモ" xfId="1" builtinId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,7 +628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC7A67-C495-4FD5-8AA0-4B5E54831651}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -583,109 +645,103 @@
     </row>
     <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>877.44311999999991</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>43.370990499999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>722640.26522982528</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1475.9126634322256</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>19</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>4.383434103171628</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>1.5976759691315121E-4</v>
       </c>
-      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>1.7291328115213698</v>
       </c>
-      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>3.1953519382630242E-4</v>
       </c>
-      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>2.0930240544083101</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -697,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CAA06A-D0FF-4AFC-BF33-5B9AA46ED267}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -715,84 +771,82 @@
     </row>
     <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>877.44311999999991</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>43.370990499999998</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>722640.26522982528</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>1475.9126634322256</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>489.62264714859884</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>1.2778383132815286E-21</v>
       </c>
-      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>2.1682516014062614</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -801,132 +855,518 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10487880-B4C9-4D10-8C75-A7DC0BAE36F4}">
-  <dimension ref="A1:D120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE47029C-1600-4B1C-B68B-7B65B442D6EC}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>418.87699999999995</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43.370990499999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>138881.89729578944</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1475.9126634322256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>94.09899429470336</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.0379009157865149E-15</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2.1682516014062614</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652AB621-C1FF-4407-AD15-BA54C8987A68}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="48.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5">
+        <v>418.87699999999995</v>
+      </c>
+      <c r="C4" s="5">
+        <v>43.370990499999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>138881.89729578944</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1475.9126634322256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4.4824308448646155</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.2757956482086302E-4</v>
+      </c>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.7291328115213698</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.5515912964172604E-4</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2.0930240544083096</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10487880-B4C9-4D10-8C75-A7DC0BAE36F4}">
+  <dimension ref="A1:M120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>614.149</v>
       </c>
+      <c r="C4">
+        <v>430.7</v>
+      </c>
       <c r="D4">
         <v>19.488700000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>B28/D28</f>
+        <v>489.62264714859884</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4">
+        <f>C28/D28</f>
+        <v>94.09899429470336</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>2.617</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>569.23099999999999</v>
       </c>
+      <c r="C5">
+        <v>88.56</v>
+      </c>
       <c r="D5">
         <v>85.422399999999996</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <f>M4+($M$9-$M$4)/5</f>
+        <v>2.5954000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1097.1099999999999</v>
       </c>
+      <c r="C6">
+        <v>104.41</v>
+      </c>
       <c r="D6">
         <v>10.9834</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f>(B26-D26)/SQRT(B27/B25+D27/D25)</f>
+        <v>4.3834341031716297</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <f>(C26-D26)/SQRT(C27/C25+D27/D25)</f>
+        <v>4.4824308448646155</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M8" si="0">M5+($M$9-$M$4)/5</f>
+        <v>2.5738000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>117.325</v>
       </c>
+      <c r="C7">
+        <v>134.96</v>
+      </c>
       <c r="D7">
         <v>19.2303</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7">
+        <f>(B27/B25)/(B27/B25+D27/D25)</f>
+        <v>0.99796177366493</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <f>(C27/C25)/(C27/C25+D27/D25)</f>
+        <v>0.98948464168925809</v>
+      </c>
+      <c r="L7">
+        <v>18</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>2.5522000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>285.81799999999998</v>
       </c>
+      <c r="C8">
+        <v>221.11</v>
+      </c>
       <c r="D8">
         <v>63.541499999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f>1/((G7^2/(B25-1))+((1-G7)^2/(D25-1)))</f>
+        <v>19.077610465346169</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <f>1/(J7^2/((C25-1)+(1-J7)^2/(D25-1)))</f>
+        <v>19.405981749585809</v>
+      </c>
+      <c r="L8" s="4">
+        <v>19</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5306000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>176.864</v>
       </c>
+      <c r="C9">
+        <v>98.03</v>
+      </c>
       <c r="D9">
         <v>26.067299999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>2.5089999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>457.04899999999998</v>
       </c>
+      <c r="C10">
+        <v>314.38</v>
+      </c>
       <c r="D10">
         <v>101.173</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>650.16899999999998</v>
       </c>
+      <c r="C11">
+        <v>434.28</v>
+      </c>
       <c r="D11">
         <v>12.289400000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>1219.6500000000001</v>
       </c>
+      <c r="C12">
+        <v>56.81</v>
+      </c>
       <c r="D12">
         <v>48.063099999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>2341.7800000000002</v>
       </c>
+      <c r="C13">
+        <v>1222.08</v>
+      </c>
       <c r="D13">
         <v>33.339100000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>113.699</v>
       </c>
+      <c r="C14">
+        <v>609.08000000000004</v>
+      </c>
       <c r="D14">
         <v>12.2134</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>2047.99</v>
       </c>
+      <c r="C15">
+        <v>264.58</v>
+      </c>
       <c r="D15">
         <v>14.900399999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>939.58900000000006</v>
+      </c>
+      <c r="C16">
+        <v>741.93</v>
       </c>
       <c r="D16">
         <v>52.020499999999998</v>
@@ -936,6 +1376,9 @@
       <c r="B17">
         <v>41.874400000000001</v>
       </c>
+      <c r="C17">
+        <v>69.8</v>
+      </c>
       <c r="D17">
         <v>60.945099999999996</v>
       </c>
@@ -944,6 +1387,9 @@
       <c r="B18">
         <v>848.51099999999997</v>
       </c>
+      <c r="C18">
+        <v>1000.44</v>
+      </c>
       <c r="D18">
         <v>20.6479</v>
       </c>
@@ -952,6 +1398,9 @@
       <c r="B19">
         <v>2759.66</v>
       </c>
+      <c r="C19">
+        <v>777.9</v>
+      </c>
       <c r="D19">
         <v>22.699000000000002</v>
       </c>
@@ -960,6 +1409,9 @@
       <c r="B20">
         <v>2410.0300000000002</v>
       </c>
+      <c r="C20">
+        <v>1134.01</v>
+      </c>
       <c r="D20">
         <v>8.2387099999999993</v>
       </c>
@@ -968,6 +1420,9 @@
       <c r="B21">
         <v>375.61900000000003</v>
       </c>
+      <c r="C21">
+        <v>170.33</v>
+      </c>
       <c r="D21">
         <v>155.43799999999999</v>
       </c>
@@ -976,6 +1431,9 @@
       <c r="B22">
         <v>229.375</v>
       </c>
+      <c r="C22">
+        <v>113.48</v>
+      </c>
       <c r="D22">
         <v>19.245000000000001</v>
       </c>
@@ -984,6 +1442,9 @@
       <c r="B23">
         <v>253.37</v>
       </c>
+      <c r="C23">
+        <v>390.67</v>
+      </c>
       <c r="D23">
         <v>81.473600000000005</v>
       </c>
@@ -1010,6 +1471,10 @@
         <f>AVERAGE(B4:B23)</f>
         <v>877.44311999999991</v>
       </c>
+      <c r="C26">
+        <f>AVERAGE(C4:C23)</f>
+        <v>418.87699999999995</v>
+      </c>
       <c r="D26">
         <f>AVERAGE(D4:D23)</f>
         <v>43.370990499999998</v>
@@ -1023,6 +1488,10 @@
         <f>SUM(B101:B120)/(B25-1)</f>
         <v>722640.26522982481</v>
       </c>
+      <c r="C27">
+        <f>SUM(C101:C120)/(C25-1)</f>
+        <v>138881.89729578944</v>
+      </c>
       <c r="D27">
         <f>SUM(D101:D120)/(D25-1)</f>
         <v>1475.9126634322256</v>
@@ -1036,45 +1505,19 @@
         <f>_xlfn.VAR.S(B4:B23)</f>
         <v>722640.26522982528</v>
       </c>
+      <c r="C28">
+        <f>_xlfn.VAR.S(C4:C23)</f>
+        <v>138881.89729578944</v>
+      </c>
       <c r="D28">
         <f>_xlfn.VAR.S(D4:D23)</f>
         <v>1475.9126634322256</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <f>B28/D28</f>
-        <v>489.62264714859884</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <f>(B26-D26)/SQRT(B27/B25+D27/D25)</f>
-        <v>4.3834341031716297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <f>(B27/B25)/(B27/B25+D27/D25)</f>
-        <v>0.99796177366493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <f>1/((B33^2/(B25-1))+((1-B33)^2/(D25-1)))</f>
-        <v>19.077610465346169</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <f>SQRT(C28)</f>
+        <v>372.66861592544848</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.45">
@@ -1082,6 +1525,10 @@
         <f>(B4-B$26)^2</f>
         <v>69323.793626574348</v>
       </c>
+      <c r="C101">
+        <f>(C4-C$26)^2</f>
+        <v>139.78332900000086</v>
+      </c>
       <c r="D101">
         <f>(D4-D$26)^2</f>
         <v>570.36379952639004</v>
@@ -1089,197 +1536,275 @@
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B102">
-        <f t="shared" ref="B102:B120" si="0">(B5-B$26)^2</f>
+        <f t="shared" ref="B102:C102" si="1">(B5-B$26)^2</f>
         <v>94994.710914894342</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>109109.32048899996</v>
+      </c>
       <c r="D102">
-        <f t="shared" ref="D102:D120" si="1">(D5-D$26)^2</f>
+        <f t="shared" ref="D102:D120" si="2">(D5-D$26)^2</f>
         <v>1768.32104093669</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B103">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B103:C103" si="3">(B6-B$26)^2</f>
         <v>48253.538168934399</v>
       </c>
+      <c r="C103">
+        <f t="shared" si="3"/>
+        <v>98889.494088999985</v>
+      </c>
       <c r="D103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1048.9560183956903</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B104">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B104:C104" si="4">(B7-B$26)^2</f>
         <v>577779.55635233421</v>
       </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>80608.862888999953</v>
+      </c>
       <c r="D104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>582.7729378167902</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B105">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B105:C105" si="5">(B8-B$26)^2</f>
         <v>350020.28261501429</v>
       </c>
+      <c r="C105">
+        <f t="shared" si="5"/>
+        <v>39111.786288999974</v>
+      </c>
       <c r="D105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>406.8494534895903</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B106">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B106:C106" si="6">(B9-B$26)^2</f>
         <v>490811.1033799742</v>
       </c>
+      <c r="C106">
+        <f t="shared" si="6"/>
+        <v>102942.79740899999</v>
+      </c>
       <c r="D106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>299.4177049197902</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B107">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B107:C107" si="7">(B10-B$26)^2</f>
         <v>176731.21613057435</v>
       </c>
+      <c r="C107">
+        <f t="shared" si="7"/>
+        <v>10919.623008999992</v>
+      </c>
       <c r="D107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3341.0723022380907</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B108">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B108:C108" si="8">(B11-B$26)^2</f>
         <v>51653.525621774366</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="8"/>
+        <v>237.25240900000063</v>
+      </c>
       <c r="D108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>966.06526800969004</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B109">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B109:C109" si="9">(B12-B$26)^2</f>
         <v>117105.54871933452</v>
       </c>
+      <c r="C109">
+        <f t="shared" si="9"/>
+        <v>131092.51248899996</v>
+      </c>
       <c r="D109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22.015891559990258</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B110">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B110:C110" si="10">(B13-B$26)^2</f>
         <v>2144282.4981281352</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="10"/>
+        <v>645135.05920899997</v>
+      </c>
       <c r="D110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100.63882700399017</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B111">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B111:C111" si="11">(B14-B$26)^2</f>
         <v>583305.0808345743</v>
       </c>
+      <c r="C111">
+        <f t="shared" si="11"/>
+        <v>36177.181209000031</v>
+      </c>
       <c r="D111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>970.79544576569015</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B112">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B112:C112" si="12">(B15-B$26)^2</f>
         <v>1370179.9982777347</v>
       </c>
+      <c r="C112">
+        <f t="shared" si="12"/>
+        <v>23807.564208999989</v>
+      </c>
       <c r="D112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>810.57452341869021</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B113">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B113:C113" si="13">(B16-B$26)^2</f>
         <v>3862.1104009744186</v>
       </c>
+      <c r="C113">
+        <f t="shared" si="13"/>
+        <v>104363.240809</v>
+      </c>
       <c r="D113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74.814014590590261</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B114">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B114:C114" si="14">(B17-B$26)^2</f>
         <v>698175.08584243816</v>
       </c>
+      <c r="C114">
+        <f t="shared" si="14"/>
+        <v>121854.75192899996</v>
+      </c>
       <c r="D114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>308.84932471799021</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B115">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B115:C115" si="15">(B18-B$26)^2</f>
         <v>837.06756769439653</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="15"/>
+        <v>338215.5229690001</v>
+      </c>
       <c r="D115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>516.3388418711902</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B116">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B116:C116" si="16">(B19-B$26)^2</f>
         <v>3542740.3833569344</v>
       </c>
+      <c r="C116">
+        <f t="shared" si="16"/>
+        <v>128897.51452900002</v>
+      </c>
       <c r="D116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>427.33119123209008</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B117">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B117:C117" si="17">(B20-B$26)^2</f>
         <v>2348822.5447481354</v>
       </c>
+      <c r="C117">
+        <f t="shared" si="17"/>
+        <v>511415.20768900006</v>
+      </c>
       <c r="D117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1234.2771331306803</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B118">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B118:C118" si="18">(B21-B$26)^2</f>
         <v>251827.44741377427</v>
       </c>
+      <c r="C118">
+        <f t="shared" si="18"/>
+        <v>61775.611208999973</v>
+      </c>
       <c r="D118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12559.014618273086</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B119">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B119:C119" si="19">(B22-B$26)^2</f>
         <v>419992.28816033428</v>
       </c>
+      <c r="C119">
+        <f t="shared" si="19"/>
+        <v>93267.327608999956</v>
+      </c>
       <c r="D119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>582.06341760609007</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B120">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B120:C120" si="20">(B23-B$26)^2</f>
         <v>389467.2591065343</v>
       </c>
+      <c r="C120">
+        <f t="shared" si="20"/>
+        <v>795.63484899999639</v>
+      </c>
       <c r="D120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1451.8088507094908</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
